--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgresql.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgresql.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bence/Projects/judo-ng/runtime/judo-tatami-base/judo-tatami-asm2rdbms/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F6136-0B4B-5B43-BBA2-7EF1CF229629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DEEF6F-29D4-3D43-81C5-2E3875F8C7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21460" yWindow="2400" windowWidth="28000" windowHeight="20180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="4400" windowWidth="28000" windowHeight="20180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:G1019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgresql.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgresql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bence/Projects/judo-ng/runtime/judo-tatami-base/judo-tatami-asm2rdbms/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DEEF6F-29D4-3D43-81C5-2E3875F8C7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8690BDC6-0BE5-C247-B060-A5CE54861843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="4400" windowWidth="28000" windowHeight="20180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:G1019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -725,10 +725,10 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3">
-        <v>2014</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -759,10 +759,10 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="3">
-        <v>2014</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -776,10 +776,10 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3">
-        <v>2014</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -793,10 +793,10 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="3">
-        <v>2014</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -827,10 +827,10 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="3">
-        <v>2014</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1226,7 +1226,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" s="3">
         <v>92</v>
@@ -1260,7 +1260,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37" s="3">
         <v>92</v>
